--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">NOTAS DEBE CENTRAL  11 SUR    </t>
   </si>
@@ -49,6 +49,12 @@
       <t xml:space="preserve"> ABASTOS DE 4 CARNES  11 SUR </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">NOTAS DE 11 SUR  </t>
+  </si>
+  <si>
+    <t>NOTAS DE PRODUCCION</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +118,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +154,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -241,26 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,11 +284,35 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -283,6 +323,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -302,15 +343,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>626269</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -319,13 +360,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="16059"/>
+        <a:srcRect l="2505" t="135" r="5838" b="21457"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="626269" y="671513"/>
-          <a:ext cx="7505700" cy="5924550"/>
+          <a:off x="523874" y="400051"/>
+          <a:ext cx="7524751" cy="6029324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -337,13 +378,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -360,7 +401,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401049" y="704850"/>
+          <a:off x="9048749" y="704850"/>
           <a:ext cx="6562725" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -639,57 +680,85 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="F36:J40"/>
+  <dimension ref="D1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="M2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
     <row r="36" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="2">
         <v>839615.91</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="6:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="3">
         <v>-135647.31</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="6:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="1">
+      <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="6:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:J39" si="0">SUM(I36:J38)</f>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39" si="0">SUM(I36:J38)</f>
         <v>703968.60000000009</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="5"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="M2:P3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">NOTAS DEBE CENTRAL  11 SUR    </t>
   </si>
@@ -55,6 +55,21 @@
   <si>
     <t>NOTAS DE PRODUCCION</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Folio</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t>TOTAL PAGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P A G A DO </t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +149,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -167,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -236,36 +266,144 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -275,13 +413,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,16 +446,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +567,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -680,93 +863,191 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="D1:P40"/>
+  <dimension ref="D1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="36" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="35" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>839615.91</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+      <c r="M36" s="16">
+        <v>45264</v>
+      </c>
+      <c r="N36" s="17">
+        <v>3974960</v>
+      </c>
+      <c r="O36" s="18">
+        <v>254122</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="5">
         <v>-135647.31</v>
       </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="6:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="4">
+      <c r="J37" s="5"/>
+      <c r="M37" s="16">
+        <v>45264</v>
+      </c>
+      <c r="N37" s="17">
+        <v>3975641</v>
+      </c>
+      <c r="O37" s="18">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="6">
         <v>0</v>
       </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="6:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="6" t="s">
+      <c r="J38" s="6"/>
+      <c r="M38" s="16">
+        <v>45264</v>
+      </c>
+      <c r="N38" s="17">
+        <v>3975647</v>
+      </c>
+      <c r="O38" s="18">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="5">
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="7">
         <f t="shared" ref="I39" si="0">SUM(I36:J38)</f>
         <v>703968.60000000009</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
+      <c r="J39" s="7"/>
+      <c r="M39" s="16">
+        <v>45264</v>
+      </c>
+      <c r="N39" s="17">
+        <v>3975654</v>
+      </c>
+      <c r="O39" s="18">
+        <v>71946</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="26"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20">
+        <f>SUM(O36:O40)</f>
+        <v>703968</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I42" s="26"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="16"/>
+      <c r="O43" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <sortState ref="M36:O39">
+    <sortCondition ref="N36:N39"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F39:H40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="I40:L43"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="M2:P3"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F39:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CENTRAL &amp; 11 SUR  27-Nov-23" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="  PRODUCCION   &amp; 11 SUR 6-Dic-" sheetId="2" r:id="rId2"/>
+    <sheet name="11  SUR  &amp;    OBRADOR 6-Dic-23" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">NOTAS DEBE CENTRAL  11 SUR    </t>
   </si>
@@ -70,6 +71,24 @@
   <si>
     <t xml:space="preserve"> P A G A DO </t>
   </si>
+  <si>
+    <t xml:space="preserve">PRODUCCION  DEBE  A    11 SUR  </t>
+  </si>
+  <si>
+    <t>11 SUR DEBE A PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL DEBE PAGAR A  11 SUR   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR NOTAS DEBE  11 SUR A   ODELPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR NOTAS   ODELPA  DEBE A 11 SUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBE PAGAR 11 SUR  A  ODELPA  </t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +183,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +231,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -404,6 +451,72 @@
       </right>
       <top/>
       <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -413,42 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,38 +543,274 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,6 +822,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -590,6 +907,231 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160736</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>86517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-12-01 ESCANEO\WhatsApp Image 2023-12-06 at 9.40.46 AM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15714" r="3483" b="30594"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9304736" y="7929561"/>
+          <a:ext cx="2625328" cy="2330847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>296545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\ROUSS\Pictures\2023-12-06 ESCANEO\11 SUR  A  PRODUCCION  6-DIC-23.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="0"/>
+          <a:ext cx="5612130" cy="5478145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="24215"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="6715125" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6162</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>665768</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9150162" y="4482"/>
+          <a:ext cx="10408724" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="C:\Users\ROUSS\Pictures\2023-12-06 ESCANEO\11 SUR   A  OBRADOR  6-DIC-23.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="7440706" cy="8314765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -865,8 +1407,8 @@
   </sheetPr>
   <dimension ref="D1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="K37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,39 +1417,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="M2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="35" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -915,17 +1457,17 @@
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="32">
         <v>839615.91</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="M36" s="16">
+      <c r="J36" s="32"/>
+      <c r="M36" s="5">
         <v>45264</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="6">
         <v>3974960</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="7">
         <v>254122</v>
       </c>
     </row>
@@ -933,102 +1475,102 @@
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="33">
         <v>-135647.31</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="M37" s="16">
+      <c r="J37" s="33"/>
+      <c r="M37" s="5">
         <v>45264</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="6">
         <v>3975641</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="7">
         <v>360000</v>
       </c>
     </row>
     <row r="38" spans="6:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="6">
+      <c r="I38" s="34">
         <v>0</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="M38" s="16">
+      <c r="J38" s="34"/>
+      <c r="M38" s="5">
         <v>45264</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="6">
         <v>3975647</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="7">
         <v>17900</v>
       </c>
     </row>
     <row r="39" spans="6:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7">
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="13">
         <f t="shared" ref="I39" si="0">SUM(I36:J38)</f>
         <v>703968.60000000009</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="M39" s="16">
+      <c r="J39" s="13"/>
+      <c r="M39" s="5">
         <v>45264</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="6">
         <v>3975654</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="7">
         <v>71946</v>
       </c>
     </row>
     <row r="40" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="23" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I41" s="26"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="21" t="s">
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20">
+      <c r="N41" s="20"/>
+      <c r="O41" s="8">
         <f>SUM(O36:O40)</f>
         <v>703968</v>
       </c>
     </row>
     <row r="42" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I42" s="26"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
     </row>
     <row r="43" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="16"/>
-      <c r="O43" s="18"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="5"/>
+      <c r="O43" s="7"/>
     </row>
   </sheetData>
   <sortState ref="M36:O39">
@@ -1053,17 +1595,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="C20:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="H21" s="44">
+        <v>393831</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="H25" s="56">
+        <v>133217.70000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" spans="3:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="68">
+        <f>H21-H25</f>
+        <v>260613.3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="69"/>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D21:F23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="D25:F27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="H29:H31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="N26:U37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+      <c r="S27" s="80">
+        <v>775974.14</v>
+      </c>
+      <c r="T27" s="81"/>
+      <c r="U27" s="84"/>
+    </row>
+    <row r="28" spans="14:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="84"/>
+    </row>
+    <row r="29" spans="14:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="67"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+    </row>
+    <row r="30" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N31" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="S31" s="80">
+        <v>530826.4</v>
+      </c>
+      <c r="T31" s="81"/>
+    </row>
+    <row r="32" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="74"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="83"/>
+    </row>
+    <row r="33" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="77"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="79"/>
+    </row>
+    <row r="34" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="94">
+        <f>S27-S31</f>
+        <v>245147.74</v>
+      </c>
+      <c r="T35" s="95"/>
+    </row>
+    <row r="36" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="P36" s="88"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="97"/>
+    </row>
+    <row r="37" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="91"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N27:Q29"/>
+    <mergeCell ref="N31:Q33"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="P35:R37"/>
+    <mergeCell ref="S35:T37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CENTRAL &amp; 11 SUR  27-Nov-23" sheetId="1" r:id="rId1"/>
@@ -552,6 +552,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,9 +767,6 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,23 +968,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>296545</xdr:rowOff>
+      <xdr:colOff>269847</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\ROUSS\Pictures\2023-12-06 ESCANEO\11 SUR  A  PRODUCCION  6-DIC-23.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -992,15 +992,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="11774"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620000" y="0"/>
-          <a:ext cx="5612130" cy="5478145"/>
+          <a:off x="8208065" y="0"/>
+          <a:ext cx="5612130" cy="4828761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,16 +1013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>751115</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>8165</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>155121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,12 +1036,104 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="190500"/>
-          <a:ext cx="6715125" cy="3219450"/>
+          <a:off x="751115" y="174171"/>
+          <a:ext cx="6713764" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-12-08 ESCANEO\WhatsApp Image 2023-12-08 at 3.00.49 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7247283" y="4621695"/>
+          <a:ext cx="6858000" cy="3785870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="C:\Users\ROUSS\Pictures\2023-12-08 ESCANEO\WhatsApp Image 2023-12-08 at 2.04.56 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11656" r="20450"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2948609" y="6402458"/>
+          <a:ext cx="2733261" cy="5557630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1417,30 +1507,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="M2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="M2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="35" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M35" s="2" t="s">
@@ -1457,10 +1547,10 @@
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="33">
         <v>839615.91</v>
       </c>
-      <c r="J36" s="32"/>
+      <c r="J36" s="33"/>
       <c r="M36" s="5">
         <v>45264</v>
       </c>
@@ -1475,10 +1565,10 @@
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <v>-135647.31</v>
       </c>
-      <c r="J37" s="33"/>
+      <c r="J37" s="34"/>
       <c r="M37" s="5">
         <v>45264</v>
       </c>
@@ -1490,10 +1580,10 @@
       </c>
     </row>
     <row r="38" spans="6:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="34">
+      <c r="I38" s="35">
         <v>0</v>
       </c>
-      <c r="J38" s="34"/>
+      <c r="J38" s="35"/>
       <c r="M38" s="5">
         <v>45264</v>
       </c>
@@ -1505,16 +1595,16 @@
       </c>
     </row>
     <row r="39" spans="6:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="13">
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="14">
         <f t="shared" ref="I39" si="0">SUM(I36:J38)</f>
         <v>703968.60000000009</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="14"/>
       <c r="M39" s="5">
         <v>45264</v>
       </c>
@@ -1526,15 +1616,15 @@
       </c>
     </row>
     <row r="40" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="21" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
       <c r="O40" s="7">
@@ -1542,33 +1632,33 @@
       </c>
     </row>
     <row r="41" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="19" t="s">
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="8">
         <f>SUM(O36:O40)</f>
         <v>703968</v>
       </c>
     </row>
     <row r="42" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
       <c r="M43" s="5"/>
       <c r="O43" s="7"/>
     </row>
@@ -1600,8 +1690,8 @@
   </sheetPr>
   <dimension ref="C20:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,49 +1701,49 @@
   <sheetData>
     <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="H21" s="44">
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="H21" s="45">
         <v>393831</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="H22" s="45"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="H23" s="46"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="H25" s="56">
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="H25" s="57">
         <v>133217.70000000001</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="H26" s="57"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="H27" s="58"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="3:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
@@ -1664,30 +1754,30 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="68">
+      <c r="H29" s="69">
         <f>H21-H25</f>
         <v>260613.3</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="69"/>
+      <c r="H30" s="70"/>
     </row>
     <row r="31" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1710,8 +1800,8 @@
   </sheetPr>
   <dimension ref="N26:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,62 +1811,62 @@
   <sheetData>
     <row r="26" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
-      <c r="S27" s="80">
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="62"/>
+      <c r="S27" s="81">
         <v>775974.14</v>
       </c>
-      <c r="T27" s="81"/>
-      <c r="U27" s="84"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="13"/>
     </row>
     <row r="28" spans="14:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="84"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="13"/>
     </row>
     <row r="29" spans="14:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="65"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="67"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="68"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
-      <c r="S31" s="80">
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
+      <c r="S31" s="81">
         <v>530826.4</v>
       </c>
-      <c r="T31" s="81"/>
+      <c r="T31" s="82"/>
     </row>
     <row r="32" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="74"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="83"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="84"/>
     </row>
     <row r="33" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="77"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="79"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="14:20" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/NOTAS CENTRAL  & 11 SUR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="10770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CENTRAL &amp; 11 SUR  27-Nov-23" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">NOTAS DEBE CENTRAL  11 SUR    </t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">DEBE PAGAR 11 SUR  A  ODELPA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencia </t>
+  </si>
+  <si>
+    <t>DEBEN</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -517,6 +523,106 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -526,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +918,99 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,8 +1388,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>39921</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1222,6 +1421,42 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>20918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16607118" y="4572000"/>
+          <a:ext cx="4702175" cy="4559300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1690,7 +1925,7 @@
   </sheetPr>
   <dimension ref="C20:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1798,10 +2033,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="N26:U37"/>
+  <dimension ref="N26:U47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,8 +2130,87 @@
       <c r="S37" s="98"/>
       <c r="T37" s="99"/>
     </row>
+    <row r="38" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="104">
+        <v>45238</v>
+      </c>
+      <c r="S39" s="106">
+        <v>150000</v>
+      </c>
+      <c r="T39" s="107"/>
+    </row>
+    <row r="40" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="102"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="109"/>
+    </row>
+    <row r="41" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="5"/>
+      <c r="S41" s="118">
+        <v>0</v>
+      </c>
+      <c r="T41" s="118"/>
+    </row>
+    <row r="42" spans="14:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="112"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="119">
+        <v>0</v>
+      </c>
+      <c r="T42" s="120"/>
+    </row>
+    <row r="43" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="115"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="122"/>
+    </row>
+    <row r="44" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="Q45" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45" s="110"/>
+      <c r="S45" s="125">
+        <f>S35-S39</f>
+        <v>95147.739999999991</v>
+      </c>
+      <c r="T45" s="126"/>
+    </row>
+    <row r="46" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="Q46" s="123"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="128"/>
+    </row>
+    <row r="47" spans="14:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q47" s="102"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="130"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:T43"/>
+    <mergeCell ref="S45:T47"/>
+    <mergeCell ref="Q45:R47"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:T40"/>
     <mergeCell ref="N27:Q29"/>
     <mergeCell ref="N31:Q33"/>
     <mergeCell ref="S27:T28"/>
